--- a/vc-wavefolder.xlsx
+++ b/vc-wavefolder.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">Colour code (resistors)</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUDIO1 CV1 COMP1 TRI1 PULSE1 </t>
   </si>
   <si>
@@ -43,7 +46,10 @@
     <t xml:space="preserve">C1 C2 </t>
   </si>
   <si>
-    <t xml:space="preserve">CP</t>
+    <t xml:space="preserve">10u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take not of polarity</t>
   </si>
   <si>
     <t xml:space="preserve">C3 C4 C5 C6 </t>
@@ -52,16 +58,25 @@
     <t xml:space="preserve">100n</t>
   </si>
   <si>
+    <t xml:space="preserve">Marked ‘104’</t>
+  </si>
+  <si>
     <t xml:space="preserve">CV-LVL1 </t>
   </si>
   <si>
-    <t xml:space="preserve">R_POT</t>
+    <t xml:space="preserve">B50k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV level pot</t>
   </si>
   <si>
     <t xml:space="preserve">D1 D2 </t>
   </si>
   <si>
-    <t xml:space="preserve">1N4148WS</t>
+    <t xml:space="preserve">1N4148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any small signal diode will work</t>
   </si>
   <si>
     <t xml:space="preserve">Q1 Q2 Q3 Q4 Q7 </t>
@@ -70,7 +85,7 @@
     <t xml:space="preserve">2N3904</t>
   </si>
   <si>
-    <t xml:space="preserve">Transistors Q1 and Q2 should be matched</t>
+    <t xml:space="preserve">Ideally, Q1 and Q2 should be matched – supplied on cut tape</t>
   </si>
   <si>
     <t xml:space="preserve">Q5 Q6 </t>
@@ -79,18 +94,27 @@
     <t xml:space="preserve">2N3906</t>
   </si>
   <si>
+    <t xml:space="preserve">Supplied loose – DO NOT confuse with 3904s!</t>
+  </si>
+  <si>
     <t xml:space="preserve">R8</t>
   </si>
   <si>
     <t xml:space="preserve">1k</t>
   </si>
   <si>
+    <t xml:space="preserve">Brown, black, red</t>
+  </si>
+  <si>
     <t xml:space="preserve">R10 R15 </t>
   </si>
   <si>
     <t xml:space="preserve">33k</t>
   </si>
   <si>
+    <t xml:space="preserve">Orange, orange, orange</t>
+  </si>
+  <si>
     <t xml:space="preserve">R11 R12 R13 R16 R17 </t>
   </si>
   <si>
@@ -100,54 +124,72 @@
     <t xml:space="preserve">For best results, R11 and R12 should be matched</t>
   </si>
   <si>
+    <t xml:space="preserve">Yellow, violet, brown</t>
+  </si>
+  <si>
     <t xml:space="preserve">R18 R19 </t>
   </si>
   <si>
     <t xml:space="preserve">22k</t>
   </si>
   <si>
+    <t xml:space="preserve">Red, red, orange</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2 </t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
   </si>
   <si>
+    <t xml:space="preserve">Brown, black, orange</t>
+  </si>
+  <si>
     <t xml:space="preserve">R3 R14 </t>
   </si>
   <si>
     <t xml:space="preserve">100k</t>
   </si>
   <si>
+    <t xml:space="preserve">Brown, black, yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">R4 R5 </t>
   </si>
   <si>
     <t xml:space="preserve">12k</t>
   </si>
   <si>
+    <t xml:space="preserve">Brown, red, orange</t>
+  </si>
+  <si>
     <t xml:space="preserve">R6 R7 </t>
   </si>
   <si>
     <t xml:space="preserve">22R</t>
   </si>
   <si>
+    <t xml:space="preserve">Red, red, black</t>
+  </si>
+  <si>
     <t xml:space="preserve">R9 </t>
   </si>
   <si>
     <t xml:space="preserve">2k2</t>
   </si>
   <si>
+    <t xml:space="preserve">Red, red, red</t>
+  </si>
+  <si>
     <t xml:space="preserve">RV1 </t>
   </si>
   <si>
-    <t xml:space="preserve">R_POT_TRIM</t>
+    <t xml:space="preserve">Differential pair offset trimmer</t>
   </si>
   <si>
     <t xml:space="preserve">RV2 </t>
   </si>
   <si>
-    <t xml:space="preserve">AUDIO-LVL</t>
-  </si>
-  <si>
     <t xml:space="preserve">U$1 </t>
   </si>
   <si>
@@ -157,7 +199,7 @@
     <t xml:space="preserve">U1 </t>
   </si>
   <si>
-    <t xml:space="preserve">TL074</t>
+    <t xml:space="preserve">TL074/TL084</t>
   </si>
   <si>
     <t xml:space="preserve">Try an LM324 if you want a ‘dirtier’ sound</t>
@@ -294,13 +336,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+      <selection pane="topLeft" activeCell="V18" activeCellId="0" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
@@ -322,263 +364,311 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/vc-wavefolder.xlsx
+++ b/vc-wavefolder.xlsx
@@ -339,10 +339,10 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V18" activeCellId="0" sqref="V18"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
